--- a/data/Coltauco.xlsx
+++ b/data/Coltauco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Solar Coltauco</t>
+          <t>Parque solar fotovoltaico Los Bronces</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Blue Solar Tres SpA</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151193294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159661408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/03/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151193294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Parque Solar Coltauco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Blue Solar Tres SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6750</v>
+        <v>9450</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>19/03/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Coltauco</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coltauco</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/06/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Plan Regulador Comunal de Coltauco</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Ilustre Municipalidad de Coltauco</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>22/06/2010</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de El Molino, Comuna de Coltauco (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coltauco</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas El Molino, Coltauco (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de El Molino, Comuna de Coltauco (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,21 +1451,21 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas El Molino, Coltauco (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ilustre Municipalidad de Coltauco</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>21/11/2007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2510077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de A.S. El Molino, Coltauco (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coltauco</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>517</v>
+        <v>429</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Instalación Planta de Tratamiento de A.S. El Molino, Coltauco (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ilustre Municipalidad de Coltauco</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>234</v>
+        <v>517</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Diseño alcantarillado aguas servidas de localidad El Molino, Coltauco (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coltauco</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1119</v>
+        <v>170</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>02/02/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=261984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Diseño alcantarillado aguas servidas de localidad El Molino, Coltauco (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Coltauco</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>02/02/2004</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=261984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificacion Plano Regulador Comunal de Coltauco (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rosa Vial Rodriguez</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11/09/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,43 +2632,91 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Modificacion Plano Regulador Comunal de Coltauco (e-seia)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Rosa Vial Rodriguez</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>11/09/2002</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29518&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Coltauco</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Instalación del Sistema de Alcantarillado de Aguas Servidas de Coltauco (Segunda Presentación)</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>ESSBIO S.A.</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>2340</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>10/06/1999</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2003&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Coltauco</t>
         </is>

--- a/data/Coltauco.xlsx
+++ b/data/Coltauco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
